--- a/data/b/31-03-2022.xlsx
+++ b/data/b/31-03-2022.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B04BE9-AE0C-E548-94B1-65FCAD3ABBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio Details" r:id="rId3" sheetId="1"/>
-    <sheet name="Transaction Details" r:id="rId4" sheetId="2"/>
+    <sheet name="Portfolio Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Transaction Details" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -703,55 +711,65 @@
   </si>
   <si>
     <t>-34456.38</t>
+  </si>
+  <si>
+    <t>umesh.r.anand@gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D9D9D9"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -764,2027 +782,2367 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="17.578125" customWidth="true"/>
-    <col min="3" max="3" width="21.484375" customWidth="true"/>
-    <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="5" max="5" width="17.5" customWidth="true"/>
-    <col min="6" max="6" width="16.40625" customWidth="true"/>
-    <col min="7" max="7" width="9.84375" customWidth="true"/>
-    <col min="8" max="8" width="7.65625" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
+      <c r="B3" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>306753.47000000003</v>
       </c>
-      <c r="B10" t="n" s="2">
+      <c r="B10" s="2">
         <v>300833.93</v>
       </c>
-      <c r="C10" t="n" s="2">
-        <v>-5919.540000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
+      <c r="C10" s="2">
+        <v>-5919.5400000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="1">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="1">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="1">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="1">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s" s="1">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s" s="1">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s" s="2">
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s" s="2">
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s" s="2">
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s" s="2">
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s" s="2">
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s" s="2">
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s" s="2">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="2">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s" s="2">
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s" s="2">
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s" s="2">
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{896962C0-4A72-0844-9735-1A46751DA1FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="66.4453125" customWidth="true"/>
-    <col min="3" max="3" width="10.6640625" customWidth="true"/>
-    <col min="4" max="4" width="7.3828125" customWidth="true"/>
-    <col min="5" max="5" width="6.8359375" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="66.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="4">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s" s="4">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="4">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s" s="4">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="4">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s" s="4">
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s" s="4">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s" s="4">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="4">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s" s="4">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="4">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="4">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s" s="4">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="4">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="4">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D24" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D25" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="4">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="4">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="4">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="4">
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="4">
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="4">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s" s="4">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s" s="4">
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s" s="4">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D40" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s" s="4">
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C41" t="s" s="4">
+      <c r="C41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D41" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s" s="4">
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D42" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s" s="4">
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s" s="4">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s" s="4">
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B46" t="s" s="4">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s" s="4">
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D47" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F47" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s" s="4">
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D48" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F48" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s" s="4">
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D49" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s" s="4">
+      <c r="D49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B51" t="s" s="4">
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B52" t="s" s="4">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s" s="4">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C53" t="s" s="4">
+      <c r="C53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D53" t="s" s="4">
+      <c r="D53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s" s="4">
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s" s="4">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s" s="4">
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s" s="4">
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="4">
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="4">
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="D59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="4">
+    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D60" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E60" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F60" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="D60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D61" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F61" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="D61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="4">
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="4">
+    <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="4">
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="4">
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="4">
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="4">
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="4">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B71" t="s" s="4">
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B72" t="s" s="4">
+    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D72" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F72" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B73" t="s" s="4">
+      <c r="D72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D73" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E73" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F73" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B74" t="s" s="4">
+      <c r="D73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D74" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E74" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F74" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B75" t="s" s="4">
+      <c r="D74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B76" t="s" s="4">
+    <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="4">
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="4">
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="4">
+    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="4">
+    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="4">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="4">
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="4">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="4">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="4">
+    <row r="85" spans="1:6" ht="43" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" s="4" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/b/31-03-2022.xlsx
+++ b/data/b/31-03-2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B04BE9-AE0C-E548-94B1-65FCAD3ABBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B2B0A-D920-4942-A118-9D02E7000CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>umesh.r.anand@gmail</t>
+  </si>
+  <si>
+    <t>Umesh Raghunandanlal Anand</t>
   </si>
 </sst>
 </file>
@@ -732,19 +735,23 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1144,7 +1151,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
